--- a/Output_analysis/Linear_regression_with_PCA_cluster_number_1.xlsx
+++ b/Output_analysis/Linear_regression_with_PCA_cluster_number_1.xlsx
@@ -606,7 +606,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-0.06209690710515455</v>
+        <v>-0.06209690710515454</v>
       </c>
       <c r="F5" t="n">
         <v>26.59376875617071</v>
@@ -615,7 +615,7 @@
         <v>-0.3179655389670172</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03543469381034676</v>
+        <v>0.03543469381034681</v>
       </c>
       <c r="I5" t="n">
         <v>0.02857067213047769</v>
@@ -651,7 +651,7 @@
         <v>-0.3142271723643411</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0513951735309219</v>
+        <v>0.05139517353092187</v>
       </c>
       <c r="I6" t="n">
         <v>0.07225564115158346</v>
@@ -723,7 +723,7 @@
         <v>-0.3004627004547143</v>
       </c>
       <c r="H8" t="n">
-        <v>0.05629195552977</v>
+        <v>0.05629195552976991</v>
       </c>
       <c r="I8" t="n">
         <v>0.01624018994207726</v>
@@ -786,22 +786,22 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>-0.002778923074625458</v>
+        <v>-0.002778923074625457</v>
       </c>
       <c r="F10" t="n">
         <v>-0.7366653852341513</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.26801956955055</v>
+        <v>-0.2680195695505498</v>
       </c>
       <c r="H10" t="n">
-        <v>0.07857745345744331</v>
+        <v>0.07857745345744346</v>
       </c>
       <c r="I10" t="n">
-        <v>0.001541338716886849</v>
+        <v>0.00154133871688685</v>
       </c>
       <c r="J10" t="n">
-        <v>0.26801956955055</v>
+        <v>0.2680195695505498</v>
       </c>
     </row>
     <row r="11">
@@ -894,7 +894,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>-0.04400464030742449</v>
+        <v>-0.04400464030742451</v>
       </c>
       <c r="F13" t="n">
         <v>31.17909219285452</v>
@@ -903,7 +903,7 @@
         <v>-0.2361620332756549</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1227467362708251</v>
+        <v>0.122746736270825</v>
       </c>
       <c r="I13" t="n">
         <v>0.02793843480531177</v>
@@ -930,7 +930,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>-0.009795252070837625</v>
+        <v>-0.009795252070837627</v>
       </c>
       <c r="F14" t="n">
         <v>2.827857737951152</v>
@@ -939,7 +939,7 @@
         <v>-0.2057009918918448</v>
       </c>
       <c r="H14" t="n">
-        <v>0.2028823019178567</v>
+        <v>0.2028823019178566</v>
       </c>
       <c r="I14" t="n">
         <v>0.007559607576708988</v>
@@ -1152,7 +1152,7 @@
         <v>4.95108500692966</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1718393262459487</v>
+        <v>0.1718393262459486</v>
       </c>
       <c r="H20" t="n">
         <v>0.2826894652571681</v>
@@ -1161,7 +1161,7 @@
         <v>0.01028060160077258</v>
       </c>
       <c r="J20" t="n">
-        <v>0.1718393262459487</v>
+        <v>0.1718393262459486</v>
       </c>
     </row>
     <row r="21">
@@ -1191,7 +1191,7 @@
         <v>0.1667622607874012</v>
       </c>
       <c r="H21" t="n">
-        <v>0.3037256203815923</v>
+        <v>0.3037256203815925</v>
       </c>
       <c r="I21" t="n">
         <v>0.001184494814343646</v>
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>-0.05268275408321442</v>
+        <v>-0.05268275408321441</v>
       </c>
       <c r="F24" t="n">
         <v>27.92891245202</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.1389322010298642</v>
+        <v>-0.1389322010298641</v>
       </c>
       <c r="H24" t="n">
-        <v>0.3684320951686229</v>
+        <v>0.3684320951686232</v>
       </c>
       <c r="I24" t="n">
         <v>0.05794400628256933</v>
       </c>
       <c r="J24" t="n">
-        <v>0.1389322010298642</v>
+        <v>0.1389322010298641</v>
       </c>
     </row>
     <row r="25">
@@ -1326,7 +1326,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.05129958980576902</v>
+        <v>0.05129958980576903</v>
       </c>
       <c r="F25" t="n">
         <v>15.70315303951308</v>
@@ -1362,22 +1362,22 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.0001035014732804651</v>
+        <v>0.000103501473280465</v>
       </c>
       <c r="F26" t="n">
         <v>0.2999507719093463</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1382090790119161</v>
+        <v>0.138209079011916</v>
       </c>
       <c r="H26" t="n">
-        <v>0.4079539033388478</v>
+        <v>0.4079539033388482</v>
       </c>
       <c r="I26" t="n">
         <v>0.0001236148620037723</v>
       </c>
       <c r="J26" t="n">
-        <v>0.1382090790119161</v>
+        <v>0.138209079011916</v>
       </c>
     </row>
     <row r="27">
@@ -1398,7 +1398,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>-0.00453656249682126</v>
+        <v>-0.004536562496821261</v>
       </c>
       <c r="F27" t="n">
         <v>3.472087591507348</v>
@@ -1434,22 +1434,22 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>-0.01140859345514286</v>
+        <v>-0.01140859345514283</v>
       </c>
       <c r="F28" t="n">
         <v>62.55766975312913</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.1193523914524834</v>
+        <v>-0.1193523914524832</v>
       </c>
       <c r="H28" t="n">
-        <v>0.4403116629789868</v>
+        <v>0.4403116629789879</v>
       </c>
       <c r="I28" t="n">
         <v>0.01464403740625122</v>
       </c>
       <c r="J28" t="n">
-        <v>0.1193523914524834</v>
+        <v>0.1193523914524832</v>
       </c>
     </row>
     <row r="29">
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>-0.005864961609318854</v>
+        <v>-0.005864961609318852</v>
       </c>
       <c r="F30" t="n">
         <v>3.674103428613465</v>
@@ -1515,10 +1515,10 @@
         <v>-0.1189176911858446</v>
       </c>
       <c r="H30" t="n">
-        <v>0.4475426027309037</v>
+        <v>0.4475426027309041</v>
       </c>
       <c r="I30" t="n">
-        <v>0.007647757127860548</v>
+        <v>0.007647757127860549</v>
       </c>
       <c r="J30" t="n">
         <v>0.1189176911858446</v>
@@ -1551,7 +1551,7 @@
         <v>0.1115904486587017</v>
       </c>
       <c r="H31" t="n">
-        <v>0.4708141429076995</v>
+        <v>0.4708141429076999</v>
       </c>
       <c r="I31" t="n">
         <v>0.05993236719247463</v>
@@ -1578,22 +1578,22 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>-0.0215194200523217</v>
+        <v>-0.02151942005232169</v>
       </c>
       <c r="F32" t="n">
         <v>51.3576862374865</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.1084280462655627</v>
+        <v>-0.1084280462655626</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4888722937586496</v>
+        <v>0.4888722937586497</v>
       </c>
       <c r="I32" t="n">
-        <v>0.03081264315781084</v>
+        <v>0.03081264315781083</v>
       </c>
       <c r="J32" t="n">
-        <v>0.1084280462655627</v>
+        <v>0.1084280462655626</v>
       </c>
     </row>
     <row r="33">
@@ -1614,22 +1614,22 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>-0.003312143788259897</v>
+        <v>-0.003312143788259895</v>
       </c>
       <c r="F33" t="n">
         <v>2.526679982922526</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.1040077022603759</v>
+        <v>-0.1040077022603758</v>
       </c>
       <c r="H33" t="n">
-        <v>0.5175429625318659</v>
+        <v>0.517542962531866</v>
       </c>
       <c r="I33" t="n">
-        <v>0.005071653407578488</v>
+        <v>0.005071653407578487</v>
       </c>
       <c r="J33" t="n">
-        <v>0.1040077022603759</v>
+        <v>0.1040077022603758</v>
       </c>
     </row>
     <row r="34">
@@ -1656,7 +1656,7 @@
         <v>1150.816412090809</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.1025630808671493</v>
+        <v>-0.1025630808671494</v>
       </c>
       <c r="H34" t="n">
         <v>0.5128140249428179</v>
@@ -1665,7 +1665,7 @@
         <v>1.925861227091566</v>
       </c>
       <c r="J34" t="n">
-        <v>0.1025630808671493</v>
+        <v>0.1025630808671494</v>
       </c>
     </row>
     <row r="35">
@@ -1692,16 +1692,16 @@
         <v>7.012020270818523</v>
       </c>
       <c r="G35" t="n">
-        <v>0.09845887852402264</v>
+        <v>0.09845887852402262</v>
       </c>
       <c r="H35" t="n">
-        <v>0.5564663580708633</v>
+        <v>0.5564663580708635</v>
       </c>
       <c r="I35" t="n">
-        <v>0.03143864550549118</v>
+        <v>0.03143864550549119</v>
       </c>
       <c r="J35" t="n">
-        <v>0.09845887852402264</v>
+        <v>0.09845887852402262</v>
       </c>
     </row>
     <row r="36">
@@ -1722,22 +1722,22 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.009073755886227332</v>
+        <v>0.00907375588622733</v>
       </c>
       <c r="F36" t="n">
         <v>-4.922042876090002</v>
       </c>
       <c r="G36" t="n">
-        <v>0.08108199509447125</v>
+        <v>0.08108199509447124</v>
       </c>
       <c r="H36" t="n">
-        <v>0.6142941051893647</v>
+        <v>0.6142941051893649</v>
       </c>
       <c r="I36" t="n">
         <v>0.01786068285696258</v>
       </c>
       <c r="J36" t="n">
-        <v>0.08108199509447125</v>
+        <v>0.08108199509447124</v>
       </c>
     </row>
     <row r="37">
@@ -1758,22 +1758,22 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>-0.7670600410835509</v>
+        <v>-0.7670600410835512</v>
       </c>
       <c r="F37" t="n">
         <v>1102.36553098806</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.07321026956734952</v>
+        <v>-0.07321026956734955</v>
       </c>
       <c r="H37" t="n">
-        <v>0.6408201013800134</v>
+        <v>0.6408201013800132</v>
       </c>
       <c r="I37" t="n">
         <v>1.631918408250374</v>
       </c>
       <c r="J37" t="n">
-        <v>0.07321026956734952</v>
+        <v>0.07321026956734955</v>
       </c>
     </row>
     <row r="38">
@@ -1800,16 +1800,16 @@
         <v>88.22047837436577</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.0714146162252579</v>
+        <v>-0.07141461622525788</v>
       </c>
       <c r="H38" t="n">
-        <v>0.6614564125445785</v>
+        <v>0.6614564125445787</v>
       </c>
       <c r="I38" t="n">
         <v>0.2325394043938329</v>
       </c>
       <c r="J38" t="n">
-        <v>0.0714146162252579</v>
+        <v>0.07141461622525788</v>
       </c>
     </row>
     <row r="39">
@@ -1866,13 +1866,13 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>16221.51887979167</v>
+        <v>16221.51887979166</v>
       </c>
       <c r="F40" t="n">
         <v>19321349.7403497</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05643037953699014</v>
+        <v>0.05643037953699012</v>
       </c>
       <c r="H40" t="n">
         <v>0.7364876478376289</v>
@@ -1881,7 +1881,7 @@
         <v>47833.78095144129</v>
       </c>
       <c r="J40" t="n">
-        <v>0.05643037953699014</v>
+        <v>0.05643037953699012</v>
       </c>
     </row>
     <row r="41">
@@ -1902,22 +1902,22 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0.00758857247606482</v>
+        <v>0.007588572476064823</v>
       </c>
       <c r="F41" t="n">
         <v>5.480939671598784</v>
       </c>
       <c r="G41" t="n">
-        <v>0.05615686166013075</v>
+        <v>0.05615686166013077</v>
       </c>
       <c r="H41" t="n">
-        <v>0.7272885359288551</v>
+        <v>0.727288535928855</v>
       </c>
       <c r="I41" t="n">
         <v>0.02160424419607094</v>
       </c>
       <c r="J41" t="n">
-        <v>0.05615686166013075</v>
+        <v>0.05615686166013077</v>
       </c>
     </row>
     <row r="42">
@@ -1938,13 +1938,13 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>-0.663976275124743</v>
+        <v>-0.6639762751247431</v>
       </c>
       <c r="F42" t="n">
         <v>1155.110697001647</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.05590754779943549</v>
+        <v>-0.0559075477994355</v>
       </c>
       <c r="H42" t="n">
         <v>0.7185071005326524</v>
@@ -1953,7 +1953,7 @@
         <v>1.829690708262268</v>
       </c>
       <c r="J42" t="n">
-        <v>0.05590754779943549</v>
+        <v>0.0559075477994355</v>
       </c>
     </row>
     <row r="43">
@@ -1980,16 +1980,16 @@
         <v>47.02001622132359</v>
       </c>
       <c r="G43" t="n">
-        <v>-0.03892777604864704</v>
+        <v>-0.03892777604864701</v>
       </c>
       <c r="H43" t="n">
-        <v>0.8042594329356439</v>
+        <v>0.8042594329356441</v>
       </c>
       <c r="I43" t="n">
-        <v>0.04887823270438451</v>
+        <v>0.04887823270438452</v>
       </c>
       <c r="J43" t="n">
-        <v>0.03892777604864704</v>
+        <v>0.03892777604864701</v>
       </c>
     </row>
     <row r="44">
@@ -2046,13 +2046,13 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>-0.001636602720508068</v>
+        <v>-0.00163660272050807</v>
       </c>
       <c r="F45" t="n">
         <v>10.30490454310808</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.01455507047589413</v>
+        <v>-0.01455507047589415</v>
       </c>
       <c r="H45" t="n">
         <v>0.9271066538061365</v>
@@ -2061,7 +2061,7 @@
         <v>0.01777677407178289</v>
       </c>
       <c r="J45" t="n">
-        <v>0.01455507047589413</v>
+        <v>0.01455507047589415</v>
       </c>
     </row>
     <row r="46">
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>-0.5376178203320586</v>
+        <v>-0.5376178203320587</v>
       </c>
       <c r="F46" t="n">
         <v>3587.643594519432</v>
@@ -2118,13 +2118,13 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0.0009803510640743218</v>
+        <v>0.0009803510640743209</v>
       </c>
       <c r="F47" t="n">
         <v>7.271101119219811</v>
       </c>
       <c r="G47" t="n">
-        <v>0.01222936183167883</v>
+        <v>0.01222936183167882</v>
       </c>
       <c r="H47" t="n">
         <v>0.9395088113355951</v>
@@ -2133,7 +2133,7 @@
         <v>0.01283550759277678</v>
       </c>
       <c r="J47" t="n">
-        <v>0.01222936183167883</v>
+        <v>0.01222936183167882</v>
       </c>
     </row>
     <row r="48">
@@ -2154,22 +2154,22 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>-8.705357767329434e-05</v>
+        <v>-8.70535776732946e-05</v>
       </c>
       <c r="F48" t="n">
         <v>1.839407656794129</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.001904444115862615</v>
+        <v>-0.001904444115862621</v>
       </c>
       <c r="H48" t="n">
         <v>0.9904497606401391</v>
       </c>
       <c r="I48" t="n">
-        <v>0.007227491801920416</v>
+        <v>0.007227491801920415</v>
       </c>
       <c r="J48" t="n">
-        <v>0.001904444115862615</v>
+        <v>0.001904444115862621</v>
       </c>
     </row>
     <row r="49">
